--- a/data/pca/factorExposure/factorExposure_2018-07-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-07-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03286366854442342</v>
+        <v>-0.02581088917626175</v>
       </c>
       <c r="C2">
-        <v>0.04264931053434135</v>
+        <v>-0.01743933733297051</v>
       </c>
       <c r="D2">
-        <v>0.008007651009114547</v>
+        <v>0.01897335886596672</v>
       </c>
       <c r="E2">
-        <v>-0.01667561291593467</v>
+        <v>-0.01619073620914854</v>
       </c>
       <c r="F2">
-        <v>0.1162782540552501</v>
+        <v>0.006760954546043287</v>
       </c>
       <c r="G2">
-        <v>-0.0558916834966569</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.05308928134604213</v>
+      </c>
+      <c r="H2">
+        <v>0.04795297633237728</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1187854888395262</v>
+        <v>-0.08284087292224225</v>
       </c>
       <c r="C3">
-        <v>0.007887882895662003</v>
+        <v>0.01291214384908883</v>
       </c>
       <c r="D3">
-        <v>0.06946351139060142</v>
+        <v>0.02322156303457566</v>
       </c>
       <c r="E3">
-        <v>-0.03942163060353515</v>
+        <v>-0.01668737254684267</v>
       </c>
       <c r="F3">
-        <v>0.3941130486152519</v>
+        <v>-0.04382574827438009</v>
       </c>
       <c r="G3">
-        <v>-0.2161627110943655</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1815635725893914</v>
+      </c>
+      <c r="H3">
+        <v>0.1430000510571573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05474360956120893</v>
+        <v>-0.04794641795912365</v>
       </c>
       <c r="C4">
-        <v>0.02269483009058536</v>
+        <v>-0.003753158939095907</v>
       </c>
       <c r="D4">
-        <v>-0.03059086596602656</v>
+        <v>0.0385798116442436</v>
       </c>
       <c r="E4">
-        <v>-0.06173870251284644</v>
+        <v>0.02471979865100081</v>
       </c>
       <c r="F4">
-        <v>0.07544556151706175</v>
+        <v>0.0492808386518164</v>
       </c>
       <c r="G4">
-        <v>-0.05282598021834613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04281518213441137</v>
+      </c>
+      <c r="H4">
+        <v>0.05495460960693276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01355438475756434</v>
+        <v>-0.0268243800581395</v>
       </c>
       <c r="C6">
-        <v>0.008369641887785009</v>
+        <v>-0.003827136421395178</v>
       </c>
       <c r="D6">
-        <v>0.0129835692036803</v>
+        <v>0.05000102743792741</v>
       </c>
       <c r="E6">
-        <v>-0.02081859878009065</v>
+        <v>0.01175526784345829</v>
       </c>
       <c r="F6">
-        <v>0.01494876846726618</v>
+        <v>0.03157529511106621</v>
       </c>
       <c r="G6">
-        <v>0.002952530322504378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01338631743449462</v>
+      </c>
+      <c r="H6">
+        <v>0.06342867141275077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02491780416245599</v>
+        <v>-0.02235379399901342</v>
       </c>
       <c r="C7">
-        <v>0.003173787572836174</v>
+        <v>-0.003036226776815821</v>
       </c>
       <c r="D7">
-        <v>0.008479142448386958</v>
+        <v>0.02241083057086334</v>
       </c>
       <c r="E7">
-        <v>-0.03609901460342509</v>
+        <v>0.04224205825020145</v>
       </c>
       <c r="F7">
-        <v>0.04962322209487214</v>
+        <v>0.001302492428026538</v>
       </c>
       <c r="G7">
-        <v>-0.06327246646500047</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02312778615701419</v>
+      </c>
+      <c r="H7">
+        <v>0.03713500892690987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.02031967585126404</v>
+        <v>-0.007301553647368899</v>
       </c>
       <c r="C8">
-        <v>0.02043643915640119</v>
+        <v>0.001966593047980941</v>
       </c>
       <c r="D8">
-        <v>7.352688445971602e-05</v>
+        <v>0.01054049998041819</v>
       </c>
       <c r="E8">
-        <v>-0.06198993291321559</v>
+        <v>0.004775863633674145</v>
       </c>
       <c r="F8">
-        <v>0.09229204179828722</v>
+        <v>0.01622619065164207</v>
       </c>
       <c r="G8">
-        <v>-0.07776118482292854</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.0472759406344068</v>
+      </c>
+      <c r="H8">
+        <v>0.03696147028596972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0437481319330661</v>
+        <v>-0.03935445496641917</v>
       </c>
       <c r="C9">
-        <v>0.02363920529173056</v>
+        <v>0.000274976480944947</v>
       </c>
       <c r="D9">
-        <v>-0.01697273979808296</v>
+        <v>0.03078948389912262</v>
       </c>
       <c r="E9">
-        <v>-0.05542670959638103</v>
+        <v>0.01221484470271318</v>
       </c>
       <c r="F9">
-        <v>0.07524186468129244</v>
+        <v>0.02520720448398899</v>
       </c>
       <c r="G9">
-        <v>-0.05846965260777495</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04855497005008216</v>
+      </c>
+      <c r="H9">
+        <v>0.0511840300086413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02983226570695627</v>
+        <v>-0.0973086368146853</v>
       </c>
       <c r="C10">
-        <v>-0.04010150955196268</v>
+        <v>0.02899334181626363</v>
       </c>
       <c r="D10">
-        <v>-0.05228944749412227</v>
+        <v>-0.1538128083301745</v>
       </c>
       <c r="E10">
-        <v>0.1101420336629079</v>
+        <v>-0.02100572289164368</v>
       </c>
       <c r="F10">
-        <v>0.06171287217352373</v>
+        <v>-0.04918557196150539</v>
       </c>
       <c r="G10">
-        <v>0.02061467417058066</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02408499021959673</v>
+      </c>
+      <c r="H10">
+        <v>0.00299127838996282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03782181831377249</v>
+        <v>-0.02243299238826192</v>
       </c>
       <c r="C11">
-        <v>0.01746729354670448</v>
+        <v>0.008415175960311053</v>
       </c>
       <c r="D11">
-        <v>0.007298519693484599</v>
+        <v>0.03637596673812893</v>
       </c>
       <c r="E11">
-        <v>-0.03848350915065216</v>
+        <v>0.001525495988072599</v>
       </c>
       <c r="F11">
-        <v>0.03980758835016748</v>
+        <v>0.01023458053146965</v>
       </c>
       <c r="G11">
-        <v>-0.02553531322263856</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02662326933238668</v>
+      </c>
+      <c r="H11">
+        <v>0.04336632833922373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04377753428585453</v>
+        <v>-0.03092063180931467</v>
       </c>
       <c r="C12">
-        <v>0.01547013163627027</v>
+        <v>0.006720874868839119</v>
       </c>
       <c r="D12">
-        <v>0.0005130804245582001</v>
+        <v>0.03701543276777696</v>
       </c>
       <c r="E12">
-        <v>-0.04279985064877766</v>
+        <v>0.01058259584539075</v>
       </c>
       <c r="F12">
-        <v>0.02617590487688812</v>
+        <v>0.01631902971542076</v>
       </c>
       <c r="G12">
-        <v>-0.01472858675894867</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.0116368741057247</v>
+      </c>
+      <c r="H12">
+        <v>0.02302034922597537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02123367350323978</v>
+        <v>-0.02618837280389702</v>
       </c>
       <c r="C13">
-        <v>0.02813399787942871</v>
+        <v>-0.01380834525946547</v>
       </c>
       <c r="D13">
-        <v>0.003801364986966591</v>
+        <v>0.00303357472117591</v>
       </c>
       <c r="E13">
-        <v>-0.01014443503088758</v>
+        <v>-0.01328512231524847</v>
       </c>
       <c r="F13">
-        <v>0.07862453486607747</v>
+        <v>0.009991723620391951</v>
       </c>
       <c r="G13">
-        <v>-0.04441774773909674</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.05031099061006542</v>
+      </c>
+      <c r="H13">
+        <v>0.0517240569968895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01424583242681729</v>
+        <v>-0.01686175708413172</v>
       </c>
       <c r="C14">
-        <v>0.007950456862364215</v>
+        <v>-0.0006479198077515038</v>
       </c>
       <c r="D14">
-        <v>-0.007088368434287218</v>
+        <v>0.005784755647383795</v>
       </c>
       <c r="E14">
-        <v>-0.04049450200774787</v>
+        <v>0.01199495041008748</v>
       </c>
       <c r="F14">
-        <v>0.05004480029670233</v>
+        <v>0.01317505615499277</v>
       </c>
       <c r="G14">
-        <v>-0.07387852684486818</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04342140440242039</v>
+      </c>
+      <c r="H14">
+        <v>-0.0004377462003483933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02898795391263524</v>
+        <v>-0.02334807724230281</v>
       </c>
       <c r="C16">
-        <v>0.02251422720885711</v>
+        <v>0.00884469091049417</v>
       </c>
       <c r="D16">
-        <v>0.007062951097052773</v>
+        <v>0.03228440394200773</v>
       </c>
       <c r="E16">
-        <v>-0.03153803885065868</v>
+        <v>0.004282980246252567</v>
       </c>
       <c r="F16">
-        <v>0.04616591642928589</v>
+        <v>0.01617766078978079</v>
       </c>
       <c r="G16">
-        <v>-0.0280182620235393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02472488131475488</v>
+      </c>
+      <c r="H16">
+        <v>0.03730554920862975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04542864534658352</v>
+        <v>-0.03550126910655776</v>
       </c>
       <c r="C19">
-        <v>0.01841101003507766</v>
+        <v>0.0001533327416451685</v>
       </c>
       <c r="D19">
-        <v>0.006278786563686569</v>
+        <v>0.01672863167436854</v>
       </c>
       <c r="E19">
-        <v>-0.05340915506634604</v>
+        <v>0.004753606833566555</v>
       </c>
       <c r="F19">
-        <v>0.09669347744924191</v>
+        <v>0.01777974254792371</v>
       </c>
       <c r="G19">
-        <v>-0.05507594121906539</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.06014889424818706</v>
+      </c>
+      <c r="H19">
+        <v>0.06544147501257334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002543057383514594</v>
+        <v>-0.01041022225686147</v>
       </c>
       <c r="C20">
-        <v>0.01476338993244473</v>
+        <v>-0.006520088705626918</v>
       </c>
       <c r="D20">
-        <v>-0.00810265911714771</v>
+        <v>0.005935420944920939</v>
       </c>
       <c r="E20">
-        <v>-0.04307574526924374</v>
+        <v>0.003148391683728114</v>
       </c>
       <c r="F20">
-        <v>0.06792601782055019</v>
+        <v>0.009471201064870913</v>
       </c>
       <c r="G20">
-        <v>-0.08663003375751532</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04853603600119665</v>
+      </c>
+      <c r="H20">
+        <v>0.01176077470811633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001745657686736163</v>
+        <v>-0.01851169797948138</v>
       </c>
       <c r="C21">
-        <v>-0.001250746207485173</v>
+        <v>-0.007103820718545282</v>
       </c>
       <c r="D21">
-        <v>0.01014556159892378</v>
+        <v>0.00806900640530212</v>
       </c>
       <c r="E21">
-        <v>-0.04052487565955552</v>
+        <v>0.01404527774120602</v>
       </c>
       <c r="F21">
-        <v>0.0551454224137571</v>
+        <v>0.003803921598422903</v>
       </c>
       <c r="G21">
-        <v>-0.03880011961800273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05070656194616528</v>
+      </c>
+      <c r="H21">
+        <v>0.03011262584390956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03386362831334199</v>
+        <v>-0.02098699783461671</v>
       </c>
       <c r="C24">
-        <v>0.02404028375023706</v>
+        <v>0.003164787437039971</v>
       </c>
       <c r="D24">
-        <v>0.001622347901024418</v>
+        <v>0.03305056727421015</v>
       </c>
       <c r="E24">
-        <v>-0.01485244040531581</v>
+        <v>0.001161192157257512</v>
       </c>
       <c r="F24">
-        <v>0.03898315189471561</v>
+        <v>0.01036428028397937</v>
       </c>
       <c r="G24">
-        <v>-0.02328378582717746</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02063103600486333</v>
+      </c>
+      <c r="H24">
+        <v>0.0396291306762235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03194513561606029</v>
+        <v>-0.03010756618513884</v>
       </c>
       <c r="C25">
-        <v>0.01350469902971214</v>
+        <v>0.0009818731565671565</v>
       </c>
       <c r="D25">
-        <v>0.006762335513294656</v>
+        <v>0.03239835732717346</v>
       </c>
       <c r="E25">
-        <v>-0.04104502547096481</v>
+        <v>0.005653871340619912</v>
       </c>
       <c r="F25">
-        <v>0.04041644075006165</v>
+        <v>0.01617554978894396</v>
       </c>
       <c r="G25">
-        <v>-0.008851225047941653</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.0249179471639852</v>
+      </c>
+      <c r="H25">
+        <v>0.04286452674771349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02447731646988891</v>
+        <v>-0.02127104875090537</v>
       </c>
       <c r="C26">
-        <v>0.01756041064319524</v>
+        <v>-0.01678094281912509</v>
       </c>
       <c r="D26">
-        <v>0.02784602094593644</v>
+        <v>0.003266316957074959</v>
       </c>
       <c r="E26">
-        <v>-0.02917187600409182</v>
+        <v>-0.004744860818784186</v>
       </c>
       <c r="F26">
-        <v>0.06608696893547307</v>
+        <v>-3.278526200591151e-05</v>
       </c>
       <c r="G26">
-        <v>-0.03792660987000038</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03221467265904272</v>
+      </c>
+      <c r="H26">
+        <v>0.01721916960211963</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.06861344285910925</v>
+        <v>-0.02713334541422239</v>
       </c>
       <c r="C27">
-        <v>0.02481473118663993</v>
+        <v>0.01052528562855357</v>
       </c>
       <c r="D27">
-        <v>-0.04345371096755637</v>
+        <v>0.01406559176423587</v>
       </c>
       <c r="E27">
-        <v>-0.04117499946176902</v>
+        <v>0.00864319098637217</v>
       </c>
       <c r="F27">
-        <v>0.04440897704751582</v>
+        <v>0.01910398225856199</v>
       </c>
       <c r="G27">
-        <v>-0.0406413966568996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01931421354847113</v>
+      </c>
+      <c r="H27">
+        <v>0.00446571643119311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04508498412769264</v>
+        <v>-0.1436150427584793</v>
       </c>
       <c r="C28">
-        <v>-0.05567534866411904</v>
+        <v>0.02930874119204094</v>
       </c>
       <c r="D28">
-        <v>-0.08568681916031003</v>
+        <v>-0.2257505557784792</v>
       </c>
       <c r="E28">
-        <v>0.1536173409530284</v>
+        <v>-0.02105142772780274</v>
       </c>
       <c r="F28">
-        <v>0.06847229923754031</v>
+        <v>-0.05784226445112385</v>
       </c>
       <c r="G28">
-        <v>0.001716152072555085</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01377897126287786</v>
+      </c>
+      <c r="H28">
+        <v>-0.01939172038728971</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02212151878260345</v>
+        <v>-0.02151277147307549</v>
       </c>
       <c r="C29">
-        <v>0.006021091262780077</v>
+        <v>0.001476992232245137</v>
       </c>
       <c r="D29">
-        <v>-0.01181306706248477</v>
+        <v>0.008180148192918929</v>
       </c>
       <c r="E29">
-        <v>-0.05183777271980351</v>
+        <v>0.01284979097361539</v>
       </c>
       <c r="F29">
-        <v>0.03896477469612712</v>
+        <v>0.01600586853520773</v>
       </c>
       <c r="G29">
-        <v>-0.06107695054477227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03912542984459855</v>
+      </c>
+      <c r="H29">
+        <v>-0.003865639707404488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09607494069997863</v>
+        <v>-0.05491533638556009</v>
       </c>
       <c r="C30">
-        <v>0.06668309503767578</v>
+        <v>-0.004036542619712221</v>
       </c>
       <c r="D30">
-        <v>-0.005469443388127059</v>
+        <v>0.07042923850799128</v>
       </c>
       <c r="E30">
-        <v>-0.07601379540416615</v>
+        <v>-0.02888525857452262</v>
       </c>
       <c r="F30">
-        <v>0.07842756485258709</v>
+        <v>0.05207825955818671</v>
       </c>
       <c r="G30">
-        <v>-0.04289358347209777</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.05521767524667261</v>
+      </c>
+      <c r="H30">
+        <v>0.06945777927517852</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06460207238822582</v>
+        <v>-0.05543073842820375</v>
       </c>
       <c r="C31">
-        <v>0.03896199917962978</v>
+        <v>0.01503727546515284</v>
       </c>
       <c r="D31">
-        <v>0.0201121066604161</v>
+        <v>0.02551997242574752</v>
       </c>
       <c r="E31">
-        <v>-0.02051608976573976</v>
+        <v>-0.005227369548706399</v>
       </c>
       <c r="F31">
-        <v>0.03425212642866074</v>
+        <v>0.01577115118478248</v>
       </c>
       <c r="G31">
-        <v>-0.08343515807967439</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.0203305748884489</v>
+      </c>
+      <c r="H31">
+        <v>0.001429946382978733</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02260922984897167</v>
+        <v>-0.01087245693373808</v>
       </c>
       <c r="C32">
-        <v>0.02051458634868296</v>
+        <v>0.01340070788049226</v>
       </c>
       <c r="D32">
-        <v>-0.003434766781846821</v>
+        <v>0.0004447075430090978</v>
       </c>
       <c r="E32">
-        <v>-0.08867811075380425</v>
+        <v>0.0280320998264246</v>
       </c>
       <c r="F32">
-        <v>0.05525930694295458</v>
+        <v>0.03369909750049312</v>
       </c>
       <c r="G32">
-        <v>-0.04956758264693038</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.03585722016651531</v>
+      </c>
+      <c r="H32">
+        <v>0.0595986974655234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05501176168312052</v>
+        <v>-0.04032639677462411</v>
       </c>
       <c r="C33">
-        <v>0.02821502212091132</v>
+        <v>0.00124741447107372</v>
       </c>
       <c r="D33">
-        <v>0.03731772703103078</v>
+        <v>0.03123504224293633</v>
       </c>
       <c r="E33">
-        <v>-0.0562212726606237</v>
+        <v>-0.02391015559939477</v>
       </c>
       <c r="F33">
-        <v>0.08345810404322643</v>
+        <v>0.00136114405735591</v>
       </c>
       <c r="G33">
-        <v>-0.05723369925364289</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.05002762842109069</v>
+      </c>
+      <c r="H33">
+        <v>0.03986976353202693</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03575795370616142</v>
+        <v>-0.02793754904716771</v>
       </c>
       <c r="C34">
-        <v>0.02366708890259316</v>
+        <v>0.01740377063083917</v>
       </c>
       <c r="D34">
-        <v>0.0006252618893633414</v>
+        <v>0.03364354134074544</v>
       </c>
       <c r="E34">
-        <v>-0.04066741436084578</v>
+        <v>0.01019515501472683</v>
       </c>
       <c r="F34">
-        <v>0.05186140104333817</v>
+        <v>0.01740349878324864</v>
       </c>
       <c r="G34">
-        <v>-0.01608185169874598</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02240737313522597</v>
+      </c>
+      <c r="H34">
+        <v>0.03713305781161074</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01689908277291286</v>
+        <v>-0.02176891922473901</v>
       </c>
       <c r="C36">
-        <v>0.004786482651143319</v>
+        <v>-0.003636082445980569</v>
       </c>
       <c r="D36">
-        <v>-0.003659069897186441</v>
+        <v>-0.001400893948470679</v>
       </c>
       <c r="E36">
-        <v>-0.03417162622516238</v>
+        <v>0.004947410829185797</v>
       </c>
       <c r="F36">
-        <v>0.03275139602558592</v>
+        <v>0.003692151919009483</v>
       </c>
       <c r="G36">
-        <v>-0.04175385466911558</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02081533775689903</v>
+      </c>
+      <c r="H36">
+        <v>0.00642210511718232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.002737401984584841</v>
+        <v>-0.02427878405297923</v>
       </c>
       <c r="C38">
-        <v>-0.007080650875124918</v>
+        <v>0.01655618954428211</v>
       </c>
       <c r="D38">
-        <v>0.01573807007057493</v>
+        <v>0.002033812216952605</v>
       </c>
       <c r="E38">
-        <v>0.01248985795927433</v>
+        <v>-0.002011473290366609</v>
       </c>
       <c r="F38">
-        <v>0.04930335047526402</v>
+        <v>0.005245351387067288</v>
       </c>
       <c r="G38">
-        <v>-0.002822377633681588</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02233958940418117</v>
+      </c>
+      <c r="H38">
+        <v>0.03869625986817426</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04272083418613899</v>
+        <v>-0.02045325948002444</v>
       </c>
       <c r="C39">
-        <v>0.0409668984805464</v>
+        <v>0.00111093749111605</v>
       </c>
       <c r="D39">
-        <v>0.009597310306727565</v>
+        <v>0.07483409811828558</v>
       </c>
       <c r="E39">
-        <v>-0.04257936445879355</v>
+        <v>0.0009689067815344736</v>
       </c>
       <c r="F39">
-        <v>0.0630736242388792</v>
+        <v>0.02295430846647541</v>
       </c>
       <c r="G39">
-        <v>-0.02422442074323879</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04402858824336715</v>
+      </c>
+      <c r="H39">
+        <v>0.07178021472844154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03942021025278063</v>
+        <v>-0.03513361907532381</v>
       </c>
       <c r="C40">
-        <v>0.07507016888776784</v>
+        <v>0.001978707527989905</v>
       </c>
       <c r="D40">
-        <v>0.01332601581332504</v>
+        <v>0.01917267027252706</v>
       </c>
       <c r="E40">
-        <v>-0.01359080472309888</v>
+        <v>-0.02295402304127763</v>
       </c>
       <c r="F40">
-        <v>0.07249924120800655</v>
+        <v>0.02702130333344512</v>
       </c>
       <c r="G40">
-        <v>-0.06074989400583498</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02527242224092795</v>
+      </c>
+      <c r="H40">
+        <v>0.06685432628337029</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.001348859142467672</v>
+        <v>-0.01165588952788398</v>
       </c>
       <c r="C41">
-        <v>0.001159978770695451</v>
+        <v>-8.225882851599046e-05</v>
       </c>
       <c r="D41">
-        <v>0.003263819114143636</v>
+        <v>-0.01314148487831748</v>
       </c>
       <c r="E41">
-        <v>-0.0144716355723048</v>
+        <v>-0.001570100887388195</v>
       </c>
       <c r="F41">
-        <v>0.001137055199463615</v>
+        <v>-0.0005412696727106079</v>
       </c>
       <c r="G41">
-        <v>-0.05358297803687837</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.005763327869046411</v>
+      </c>
+      <c r="H41">
+        <v>-0.008435486962396765</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3753347233030166</v>
+        <v>-0.2039655483282468</v>
       </c>
       <c r="C42">
-        <v>-0.4988708758255256</v>
+        <v>-0.07480003951850439</v>
       </c>
       <c r="D42">
-        <v>0.714105539874398</v>
+        <v>0.3918052570314219</v>
       </c>
       <c r="E42">
-        <v>0.1512072364267963</v>
+        <v>-0.2096628083365861</v>
       </c>
       <c r="F42">
-        <v>-0.1971872896479472</v>
+        <v>-0.8326551266179447</v>
       </c>
       <c r="G42">
-        <v>-0.04980015518992592</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.2052159250891406</v>
+      </c>
+      <c r="H42">
+        <v>-0.04368415652295474</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.006244311036195663</v>
+        <v>-0.01117885503312216</v>
       </c>
       <c r="C43">
-        <v>-0.0001797352439848534</v>
+        <v>-0.001828364655115421</v>
       </c>
       <c r="D43">
-        <v>0.01751491275700762</v>
+        <v>-0.0153604263719321</v>
       </c>
       <c r="E43">
-        <v>-0.01733527744840302</v>
+        <v>-0.008687204610548034</v>
       </c>
       <c r="F43">
-        <v>0.01940464485164618</v>
+        <v>-0.009539734559785917</v>
       </c>
       <c r="G43">
-        <v>-0.0521619558251916</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.008362187846067458</v>
+      </c>
+      <c r="H43">
+        <v>-0.001841908763016762</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01774546004302621</v>
+        <v>-0.01516280092619767</v>
       </c>
       <c r="C44">
-        <v>0.005147916838135464</v>
+        <v>0.001435867836899968</v>
       </c>
       <c r="D44">
-        <v>0.01301101730857238</v>
+        <v>0.01718977531228582</v>
       </c>
       <c r="E44">
-        <v>-0.04073638370147726</v>
+        <v>0.005835548014085795</v>
       </c>
       <c r="F44">
-        <v>0.1092694446204128</v>
+        <v>-0.004361335659795171</v>
       </c>
       <c r="G44">
-        <v>-0.09173420080327688</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04509950665112589</v>
+      </c>
+      <c r="H44">
+        <v>0.05439029398410059</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02074776450589641</v>
+        <v>-0.01919094051597678</v>
       </c>
       <c r="C46">
-        <v>0.01504083080792275</v>
+        <v>-0.003510675312955704</v>
       </c>
       <c r="D46">
-        <v>0.01578077259512234</v>
+        <v>0.01383891535696737</v>
       </c>
       <c r="E46">
-        <v>-0.05615568125873973</v>
+        <v>0.0005874457577869086</v>
       </c>
       <c r="F46">
-        <v>0.05509834582909909</v>
+        <v>0.01527062964956283</v>
       </c>
       <c r="G46">
-        <v>-0.06532196378193014</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05066938504033484</v>
+      </c>
+      <c r="H46">
+        <v>0.01085535398820272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1003889917817483</v>
+        <v>-0.07682129944274636</v>
       </c>
       <c r="C47">
-        <v>0.03603607258190232</v>
+        <v>0.03042853005327253</v>
       </c>
       <c r="D47">
-        <v>-0.002216591426281582</v>
+        <v>0.04148633796695255</v>
       </c>
       <c r="E47">
-        <v>-0.03065673655484675</v>
+        <v>0.001855127114869066</v>
       </c>
       <c r="F47">
-        <v>0.005891415345770317</v>
+        <v>0.02429803488482591</v>
       </c>
       <c r="G47">
-        <v>-0.08552179873494166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.005479151356097812</v>
+      </c>
+      <c r="H47">
+        <v>-0.024322247369944</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0194055939619419</v>
+        <v>-0.02320894956949862</v>
       </c>
       <c r="C48">
-        <v>0.0101303009553222</v>
+        <v>0.006901501146860521</v>
       </c>
       <c r="D48">
-        <v>0.008722837313628775</v>
+        <v>0.00491270073545371</v>
       </c>
       <c r="E48">
-        <v>-0.03528471490038154</v>
+        <v>0.0003836950916844327</v>
       </c>
       <c r="F48">
-        <v>0.05157234823892724</v>
+        <v>0.007666389720242315</v>
       </c>
       <c r="G48">
-        <v>-0.0269205824735561</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02679460304329695</v>
+      </c>
+      <c r="H48">
+        <v>0.01574101654934161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09444645451913065</v>
+        <v>-0.07433481978767771</v>
       </c>
       <c r="C50">
-        <v>0.03803479846186823</v>
+        <v>0.02738269031930976</v>
       </c>
       <c r="D50">
-        <v>0.01103641194933017</v>
+        <v>0.04167728295623173</v>
       </c>
       <c r="E50">
-        <v>-0.04748375156019237</v>
+        <v>0.01777764009435791</v>
       </c>
       <c r="F50">
-        <v>0.03895152769661461</v>
+        <v>0.01852681572220511</v>
       </c>
       <c r="G50">
-        <v>-0.04851951471837517</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02004386980584733</v>
+      </c>
+      <c r="H50">
+        <v>-0.007229637677449469</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01898250758435473</v>
+        <v>-0.01893905536769105</v>
       </c>
       <c r="C51">
-        <v>0.001748572739450673</v>
+        <v>-0.001380558834954972</v>
       </c>
       <c r="D51">
-        <v>0.01303564513063298</v>
+        <v>-0.008928262105009221</v>
       </c>
       <c r="E51">
-        <v>-0.00632097471113653</v>
+        <v>-0.003889102217769589</v>
       </c>
       <c r="F51">
-        <v>0.1204716398775962</v>
+        <v>-0.01381157893188947</v>
       </c>
       <c r="G51">
-        <v>-0.06086712108909781</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05019809289956476</v>
+      </c>
+      <c r="H51">
+        <v>0.04836243911168625</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1060138010309589</v>
+        <v>-0.09398955534440183</v>
       </c>
       <c r="C53">
-        <v>0.04636991682293855</v>
+        <v>0.03709442299519362</v>
       </c>
       <c r="D53">
-        <v>-0.004617922256507269</v>
+        <v>0.07483236139794508</v>
       </c>
       <c r="E53">
-        <v>-0.0441006179566887</v>
+        <v>0.01162280285151041</v>
       </c>
       <c r="F53">
-        <v>-0.05517893815444819</v>
+        <v>0.05216638076149432</v>
       </c>
       <c r="G53">
-        <v>-0.01665044032120103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.04152446474743231</v>
+      </c>
+      <c r="H53">
+        <v>-0.04504420644615644</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01449536710498982</v>
+        <v>-0.02565723089453324</v>
       </c>
       <c r="C54">
-        <v>0.01072250669998754</v>
+        <v>0.01161108565726005</v>
       </c>
       <c r="D54">
-        <v>-0.01016942285858154</v>
+        <v>-0.01085348360926728</v>
       </c>
       <c r="E54">
-        <v>-0.03814506239039704</v>
+        <v>0.005550910867741822</v>
       </c>
       <c r="F54">
-        <v>0.05414080890450213</v>
+        <v>0.006441226013969088</v>
       </c>
       <c r="G54">
-        <v>-0.08402736224344209</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03949922185651175</v>
+      </c>
+      <c r="H54">
+        <v>-0.008113842944155958</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1031930396713717</v>
+        <v>-0.07787172298654702</v>
       </c>
       <c r="C55">
-        <v>0.02335348917196384</v>
+        <v>0.03182408558832826</v>
       </c>
       <c r="D55">
-        <v>-0.01704788520768308</v>
+        <v>0.07229740184083276</v>
       </c>
       <c r="E55">
-        <v>-0.05728062253587419</v>
+        <v>0.01674395656403743</v>
       </c>
       <c r="F55">
-        <v>-0.04758320889261248</v>
+        <v>0.04052524883291798</v>
       </c>
       <c r="G55">
-        <v>-0.06426274444711937</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01945278356760297</v>
+      </c>
+      <c r="H55">
+        <v>-0.05087323537564462</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1457095725988238</v>
+        <v>-0.1288403390475889</v>
       </c>
       <c r="C56">
-        <v>0.07844573372864348</v>
+        <v>0.05697898073596645</v>
       </c>
       <c r="D56">
-        <v>-0.05144891635008771</v>
+        <v>0.09548377555437536</v>
       </c>
       <c r="E56">
-        <v>-0.05252810742862694</v>
+        <v>0.01614217762190381</v>
       </c>
       <c r="F56">
-        <v>-0.1197510688753528</v>
+        <v>0.08487674368142022</v>
       </c>
       <c r="G56">
-        <v>0.04257045172468743</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.07398002012292927</v>
+      </c>
+      <c r="H56">
+        <v>-0.04780627308551759</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04880549563491878</v>
+        <v>-0.04155378156673736</v>
       </c>
       <c r="C57">
-        <v>0.01002461542828201</v>
+        <v>-0.00972546084776975</v>
       </c>
       <c r="D57">
-        <v>0.01598455577371482</v>
+        <v>0.02330070615054543</v>
       </c>
       <c r="E57">
-        <v>0.005464336302658176</v>
+        <v>-0.006091763808789113</v>
       </c>
       <c r="F57">
-        <v>0.08718625707999836</v>
+        <v>0.0115669781601494</v>
       </c>
       <c r="G57">
-        <v>-0.06747445803870589</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.05653963822165541</v>
+      </c>
+      <c r="H57">
+        <v>0.04250544451375551</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2180889354588416</v>
+        <v>-0.1527653368569322</v>
       </c>
       <c r="C58">
-        <v>0.09757183990149217</v>
+        <v>0.04390195943110705</v>
       </c>
       <c r="D58">
-        <v>0.08578850847713758</v>
+        <v>0.1571083543050569</v>
       </c>
       <c r="E58">
-        <v>-0.1879497912987263</v>
+        <v>-0.1518405392735861</v>
       </c>
       <c r="F58">
-        <v>0.2898700878940776</v>
+        <v>-0.04233809251694157</v>
       </c>
       <c r="G58">
-        <v>-0.07399596933713359</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.8286060940499838</v>
+      </c>
+      <c r="H58">
+        <v>-0.3663723848226518</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.04756677560782523</v>
+        <v>-0.1514347951538657</v>
       </c>
       <c r="C59">
-        <v>-0.01011267453417442</v>
+        <v>0.03793982620953416</v>
       </c>
       <c r="D59">
-        <v>-0.0763475430743107</v>
+        <v>-0.222417799790067</v>
       </c>
       <c r="E59">
-        <v>0.1432901331269017</v>
+        <v>-0.04099209668213076</v>
       </c>
       <c r="F59">
-        <v>0.07990572703155971</v>
+        <v>-0.0351468845110991</v>
       </c>
       <c r="G59">
-        <v>0.03024321236404551</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.009154064554585879</v>
+      </c>
+      <c r="H59">
+        <v>0.01469870587201814</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1660073070422605</v>
+        <v>-0.1742105888787994</v>
       </c>
       <c r="C60">
-        <v>0.05185991775332252</v>
+        <v>0.03723399972702518</v>
       </c>
       <c r="D60">
-        <v>0.03836000263501655</v>
+        <v>0.01548770472608339</v>
       </c>
       <c r="E60">
-        <v>0.02095069831364694</v>
+        <v>-0.04716063559461297</v>
       </c>
       <c r="F60">
-        <v>0.18735523717573</v>
+        <v>0.03492220940331218</v>
       </c>
       <c r="G60">
-        <v>0.3099851730698182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.04311285576652565</v>
+      </c>
+      <c r="H60">
+        <v>0.3913262349514502</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02204620147880301</v>
+        <v>-0.02148544246521508</v>
       </c>
       <c r="C61">
-        <v>0.008358003881625907</v>
+        <v>0.00621461439809734</v>
       </c>
       <c r="D61">
-        <v>0.008698656812212654</v>
+        <v>0.04091031876177207</v>
       </c>
       <c r="E61">
-        <v>-0.0222223275523853</v>
+        <v>0.006475136209119626</v>
       </c>
       <c r="F61">
-        <v>0.0333959514053603</v>
+        <v>0.01790546788776172</v>
       </c>
       <c r="G61">
-        <v>-0.01519976749272464</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02535757313363733</v>
+      </c>
+      <c r="H61">
+        <v>0.04988883256837942</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01808094230784651</v>
+        <v>-0.01305552506399056</v>
       </c>
       <c r="C63">
-        <v>0.01421697428145397</v>
+        <v>-0.00206801959072217</v>
       </c>
       <c r="D63">
-        <v>0.00568430902665647</v>
+        <v>0.01389518241185507</v>
       </c>
       <c r="E63">
-        <v>-0.04922916912004317</v>
+        <v>0.005520042913995422</v>
       </c>
       <c r="F63">
-        <v>0.01126266132098199</v>
+        <v>0.01539125106771466</v>
       </c>
       <c r="G63">
-        <v>-0.0452415762771344</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01649815734754808</v>
+      </c>
+      <c r="H63">
+        <v>-0.0009747400575163188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03672904664663148</v>
+        <v>-0.040748818282783</v>
       </c>
       <c r="C64">
-        <v>-0.0004044259870886124</v>
+        <v>0.009843760024887308</v>
       </c>
       <c r="D64">
-        <v>-0.01699378705347927</v>
+        <v>0.03670700680656631</v>
       </c>
       <c r="E64">
-        <v>-0.05352625622982224</v>
+        <v>0.01135741960565837</v>
       </c>
       <c r="F64">
-        <v>0.01182844717165511</v>
+        <v>0.006440762217507777</v>
       </c>
       <c r="G64">
-        <v>-0.06289594965732943</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.008320115614499999</v>
+      </c>
+      <c r="H64">
+        <v>0.03465165902139084</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01481455597149027</v>
+        <v>-0.0305396190944008</v>
       </c>
       <c r="C65">
-        <v>0.009212670734821916</v>
+        <v>-0.004248501868101653</v>
       </c>
       <c r="D65">
-        <v>0.01409822914550975</v>
+        <v>0.06055445067904455</v>
       </c>
       <c r="E65">
-        <v>-0.01964287460963881</v>
+        <v>0.01548593098200976</v>
       </c>
       <c r="F65">
-        <v>0.01013991674678954</v>
+        <v>0.03597057558400303</v>
       </c>
       <c r="G65">
-        <v>0.008221880957996182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.001122517395478666</v>
+      </c>
+      <c r="H65">
+        <v>0.06865501992272492</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04632575719790652</v>
+        <v>-0.02731315500503808</v>
       </c>
       <c r="C66">
-        <v>0.04220239181793645</v>
+        <v>0.005966789032610929</v>
       </c>
       <c r="D66">
-        <v>0.01178439611552133</v>
+        <v>0.08751250119674055</v>
       </c>
       <c r="E66">
-        <v>-0.03716956201744739</v>
+        <v>-0.0001072184719076423</v>
       </c>
       <c r="F66">
-        <v>0.05884342717037087</v>
+        <v>0.04042602545725876</v>
       </c>
       <c r="G66">
-        <v>-0.01494819655801055</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03592863936793635</v>
+      </c>
+      <c r="H66">
+        <v>0.07537547252477909</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01623929645522097</v>
+        <v>-0.04446322232390312</v>
       </c>
       <c r="C67">
-        <v>-0.005218926564719407</v>
+        <v>0.01996823493405176</v>
       </c>
       <c r="D67">
-        <v>0.008292624225502752</v>
+        <v>-0.004283622641101996</v>
       </c>
       <c r="E67">
-        <v>0.03465646046016879</v>
+        <v>-0.003424172212237101</v>
       </c>
       <c r="F67">
-        <v>0.03611230473837104</v>
+        <v>0.01094954139186188</v>
       </c>
       <c r="G67">
-        <v>0.01326635405724492</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.006504735124339335</v>
+      </c>
+      <c r="H67">
+        <v>0.04029683280484431</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05742765674328219</v>
+        <v>-0.1530689720847298</v>
       </c>
       <c r="C68">
-        <v>-0.04259693730736057</v>
+        <v>0.01826513914848579</v>
       </c>
       <c r="D68">
-        <v>-0.1046103378162584</v>
+        <v>-0.2191693033644006</v>
       </c>
       <c r="E68">
-        <v>0.1570950207774527</v>
+        <v>-0.03234349786136142</v>
       </c>
       <c r="F68">
-        <v>0.07707217159535788</v>
+        <v>-0.05410353917790048</v>
       </c>
       <c r="G68">
-        <v>0.05916790664040763</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02068339736179746</v>
+      </c>
+      <c r="H68">
+        <v>-0.03781646939764039</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07402940597209351</v>
+        <v>-0.05941632976279568</v>
       </c>
       <c r="C69">
-        <v>0.03803120923829268</v>
+        <v>0.02875905061606777</v>
       </c>
       <c r="D69">
-        <v>-0.005323159207903179</v>
+        <v>0.03616684664345532</v>
       </c>
       <c r="E69">
-        <v>-0.008611911260825585</v>
+        <v>8.805570250574043e-05</v>
       </c>
       <c r="F69">
-        <v>0.007724989113972759</v>
+        <v>0.03136746416218995</v>
       </c>
       <c r="G69">
-        <v>-0.08075681130441277</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01167476462937601</v>
+      </c>
+      <c r="H69">
+        <v>-0.0007949628520637356</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07418973420664891</v>
+        <v>-0.1455740305141414</v>
       </c>
       <c r="C71">
-        <v>-0.03450353666219817</v>
+        <v>0.02571512048521688</v>
       </c>
       <c r="D71">
-        <v>-0.08986020663496937</v>
+        <v>-0.2001781388123656</v>
       </c>
       <c r="E71">
-        <v>0.1996463804172557</v>
+        <v>-0.03569925730441962</v>
       </c>
       <c r="F71">
-        <v>0.07702232213579764</v>
+        <v>-0.06553282361094517</v>
       </c>
       <c r="G71">
-        <v>0.02130159453879139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01689202579266252</v>
+      </c>
+      <c r="H71">
+        <v>-0.02410478284028511</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1119377749198292</v>
+        <v>-0.0858834792002548</v>
       </c>
       <c r="C72">
-        <v>0.06790309878666442</v>
+        <v>0.04093598487978634</v>
       </c>
       <c r="D72">
-        <v>-0.04940923980954045</v>
+        <v>0.07504758741560009</v>
       </c>
       <c r="E72">
-        <v>-0.03178572810943208</v>
+        <v>0.006305451479636336</v>
       </c>
       <c r="F72">
-        <v>0.1141451121364636</v>
+        <v>0.08116419653949891</v>
       </c>
       <c r="G72">
-        <v>0.09641325510461791</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.05301547762915561</v>
+      </c>
+      <c r="H72">
+        <v>0.1863012143625888</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2481848388945524</v>
+        <v>-0.2390724434909652</v>
       </c>
       <c r="C73">
-        <v>0.06262619631821362</v>
+        <v>0.04817238318959692</v>
       </c>
       <c r="D73">
-        <v>0.03294629590932967</v>
+        <v>0.05619267243772324</v>
       </c>
       <c r="E73">
-        <v>0.09328112069532797</v>
+        <v>-0.07246251146862244</v>
       </c>
       <c r="F73">
-        <v>0.3078680194906886</v>
+        <v>0.03421735793923464</v>
       </c>
       <c r="G73">
-        <v>0.4384049104055351</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.06391821056535961</v>
+      </c>
+      <c r="H73">
+        <v>0.5153384442342429</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1382000085431678</v>
+        <v>-0.1211742891168173</v>
       </c>
       <c r="C74">
-        <v>0.03309139123257916</v>
+        <v>0.05323439459829318</v>
       </c>
       <c r="D74">
-        <v>-0.02901595582846493</v>
+        <v>0.09749873236896359</v>
       </c>
       <c r="E74">
-        <v>-0.02585781804429566</v>
+        <v>0.01316671781064385</v>
       </c>
       <c r="F74">
-        <v>-0.07707608340450059</v>
+        <v>0.06390681514253592</v>
       </c>
       <c r="G74">
-        <v>0.03409698703647317</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05775819465208047</v>
+      </c>
+      <c r="H74">
+        <v>-0.03090166383580167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2290312646142439</v>
+        <v>-0.232125099492537</v>
       </c>
       <c r="C75">
-        <v>0.1341064480314141</v>
+        <v>0.1038990330600131</v>
       </c>
       <c r="D75">
-        <v>-0.07235369691827806</v>
+        <v>0.1521691489459691</v>
       </c>
       <c r="E75">
-        <v>-0.06065087173886559</v>
+        <v>0.004953600913664462</v>
       </c>
       <c r="F75">
-        <v>-0.1453414850301187</v>
+        <v>0.1545762896722566</v>
       </c>
       <c r="G75">
-        <v>-0.007467722268737952</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1226870054050929</v>
+      </c>
+      <c r="H75">
+        <v>-0.112839886752372</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2764949723892073</v>
+        <v>-0.2041299989712562</v>
       </c>
       <c r="C76">
-        <v>0.09774020609262984</v>
+        <v>0.09661141152158034</v>
       </c>
       <c r="D76">
-        <v>-0.1327543376475513</v>
+        <v>0.1434657470536401</v>
       </c>
       <c r="E76">
-        <v>-0.05583117509592408</v>
+        <v>0.05086261938475884</v>
       </c>
       <c r="F76">
-        <v>-0.1791115442727499</v>
+        <v>0.149281332339481</v>
       </c>
       <c r="G76">
-        <v>-0.002281881510026107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1226597855811214</v>
+      </c>
+      <c r="H76">
+        <v>-0.1289025964003636</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1461342627879693</v>
+        <v>-0.07199952618918799</v>
       </c>
       <c r="C77">
-        <v>0.002228867563216527</v>
+        <v>0.009859751343766987</v>
       </c>
       <c r="D77">
-        <v>0.0723507601981397</v>
+        <v>0.07170357506561673</v>
       </c>
       <c r="E77">
-        <v>-0.09159335946646874</v>
+        <v>-0.01311588223378442</v>
       </c>
       <c r="F77">
-        <v>0.1669937998757715</v>
+        <v>-0.02647436237094511</v>
       </c>
       <c r="G77">
-        <v>-0.1925666605281479</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.09539369811403854</v>
+      </c>
+      <c r="H77">
+        <v>-0.01508400755624771</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06285957083077322</v>
+        <v>-0.03847607073007359</v>
       </c>
       <c r="C78">
-        <v>0.02869308714784237</v>
+        <v>0.01053242007907757</v>
       </c>
       <c r="D78">
-        <v>0.01808956591992913</v>
+        <v>0.06162995828435495</v>
       </c>
       <c r="E78">
-        <v>-0.09794430258044214</v>
+        <v>0.00775345547791433</v>
       </c>
       <c r="F78">
-        <v>0.04947843435003581</v>
+        <v>0.0251801731803212</v>
       </c>
       <c r="G78">
-        <v>-0.04913348960222194</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.04686270883708013</v>
+      </c>
+      <c r="H78">
+        <v>0.06096037837812705</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1263447583341988</v>
+        <v>-0.1402815085862766</v>
       </c>
       <c r="C80">
-        <v>-0.7467269391930416</v>
+        <v>0.04019634872260021</v>
       </c>
       <c r="D80">
-        <v>-0.4712308187568183</v>
+        <v>-0.002635845606500253</v>
       </c>
       <c r="E80">
-        <v>-0.4161720921597444</v>
+        <v>0.9410967547195759</v>
       </c>
       <c r="F80">
-        <v>0.03835891022162843</v>
+        <v>-0.2442673245910956</v>
       </c>
       <c r="G80">
-        <v>0.07448642938955982</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1153687591740904</v>
+      </c>
+      <c r="H80">
+        <v>0.0148854418068311</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.170487758772447</v>
+        <v>-0.1507186757924854</v>
       </c>
       <c r="C81">
-        <v>0.08368416666129661</v>
+        <v>0.06667965867180745</v>
       </c>
       <c r="D81">
-        <v>-0.07885303642607702</v>
+        <v>0.09179905950362444</v>
       </c>
       <c r="E81">
-        <v>-0.04438893549496495</v>
+        <v>0.02323054320081965</v>
       </c>
       <c r="F81">
-        <v>-0.1433438081109639</v>
+        <v>0.09387297125229413</v>
       </c>
       <c r="G81">
-        <v>0.01940872403930845</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.0779944740169308</v>
+      </c>
+      <c r="H81">
+        <v>-0.08435816904109582</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0506439933943186</v>
+        <v>-0.03372771664340678</v>
       </c>
       <c r="C83">
-        <v>0.01890038405558214</v>
+        <v>0.005892687439367611</v>
       </c>
       <c r="D83">
-        <v>0.04354740437911127</v>
+        <v>0.02175282608042911</v>
       </c>
       <c r="E83">
-        <v>-0.020723963905393</v>
+        <v>-0.01167290763249387</v>
       </c>
       <c r="F83">
-        <v>0.05560973719695658</v>
+        <v>0.003240283672486366</v>
       </c>
       <c r="G83">
-        <v>-0.05883317285516505</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04301008890511362</v>
+      </c>
+      <c r="H83">
+        <v>0.03929487137746964</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2510230196353818</v>
+        <v>-0.2176754807121929</v>
       </c>
       <c r="C85">
-        <v>0.1085901417789635</v>
+        <v>0.08633912423116254</v>
       </c>
       <c r="D85">
-        <v>-0.08952760573515606</v>
+        <v>0.1532256714498374</v>
       </c>
       <c r="E85">
-        <v>-0.05258746196719596</v>
+        <v>0.01187901300562673</v>
       </c>
       <c r="F85">
-        <v>-0.147395881512905</v>
+        <v>0.1403643766018275</v>
       </c>
       <c r="G85">
-        <v>-0.04284331428965671</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1342255198790097</v>
+      </c>
+      <c r="H85">
+        <v>-0.09003885700054008</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.002432669948649148</v>
+        <v>-0.02192442346731171</v>
       </c>
       <c r="C86">
-        <v>-0.01000443586105511</v>
+        <v>-0.0002473421983551344</v>
       </c>
       <c r="D86">
-        <v>0.01547700798283727</v>
+        <v>0.005179818928853832</v>
       </c>
       <c r="E86">
-        <v>-0.05151431299033022</v>
+        <v>-0.01174437487076783</v>
       </c>
       <c r="F86">
-        <v>0.06582457109931385</v>
+        <v>-0.01808165799759815</v>
       </c>
       <c r="G86">
-        <v>-0.02714324802254311</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.06471153108166597</v>
+      </c>
+      <c r="H86">
+        <v>0.07162708099910389</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.04005714482645942</v>
+        <v>-0.02970758828486275</v>
       </c>
       <c r="C87">
-        <v>-0.001275258821904641</v>
+        <v>0.003172476666801353</v>
       </c>
       <c r="D87">
-        <v>-0.0004121223019511355</v>
+        <v>0.032447940784275</v>
       </c>
       <c r="E87">
-        <v>-0.0344310000058224</v>
+        <v>0.004955686843751844</v>
       </c>
       <c r="F87">
-        <v>0.09800301269572727</v>
+        <v>0.007243147567392078</v>
       </c>
       <c r="G87">
-        <v>-0.03986339194378011</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.07861547028785676</v>
+      </c>
+      <c r="H87">
+        <v>0.06779229984862199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01060531707060629</v>
+        <v>-0.03846178557141568</v>
       </c>
       <c r="C88">
-        <v>0.002787584376682908</v>
+        <v>-0.01042318720574057</v>
       </c>
       <c r="D88">
-        <v>-0.01842189623805892</v>
+        <v>0.000510290575107114</v>
       </c>
       <c r="E88">
-        <v>0.002516739436878367</v>
+        <v>0.008739839709298317</v>
       </c>
       <c r="F88">
-        <v>0.01052464399748142</v>
+        <v>0.009857560363581815</v>
       </c>
       <c r="G88">
-        <v>-0.05989606882376373</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.004637529445822091</v>
+      </c>
+      <c r="H88">
+        <v>0.009752791409438893</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08814828135884092</v>
+        <v>-0.2387811184676918</v>
       </c>
       <c r="C89">
-        <v>-0.0504101432391997</v>
+        <v>0.03838427865459697</v>
       </c>
       <c r="D89">
-        <v>-0.1160310504928157</v>
+        <v>-0.349398844944642</v>
       </c>
       <c r="E89">
-        <v>0.2681299338850776</v>
+        <v>-0.06440167395977937</v>
       </c>
       <c r="F89">
-        <v>0.1425028552686088</v>
+        <v>-0.07370907436315872</v>
       </c>
       <c r="G89">
-        <v>-0.03540065266989516</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.03026807016203757</v>
+      </c>
+      <c r="H89">
+        <v>-0.01922916360046588</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.0783935392413674</v>
+        <v>-0.192893458080482</v>
       </c>
       <c r="C90">
-        <v>-0.09047647660344708</v>
+        <v>0.03172398237105492</v>
       </c>
       <c r="D90">
-        <v>-0.1542772937873969</v>
+        <v>-0.3063659142674065</v>
       </c>
       <c r="E90">
-        <v>0.2841151086365561</v>
+        <v>-0.04875044027551586</v>
       </c>
       <c r="F90">
-        <v>0.1029739750017807</v>
+        <v>-0.08520395893133771</v>
       </c>
       <c r="G90">
-        <v>-0.01987499132258768</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02879853754775993</v>
+      </c>
+      <c r="H90">
+        <v>-0.06506693269717663</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3004489944248219</v>
+        <v>-0.2364890795876621</v>
       </c>
       <c r="C91">
-        <v>0.1161321511581245</v>
+        <v>0.1043832084590635</v>
       </c>
       <c r="D91">
-        <v>-0.0833800640763286</v>
+        <v>0.1447525945363412</v>
       </c>
       <c r="E91">
-        <v>-0.02424996294882708</v>
+        <v>0.01221847406064888</v>
       </c>
       <c r="F91">
-        <v>-0.2406998228480186</v>
+        <v>0.1465461041848473</v>
       </c>
       <c r="G91">
-        <v>0.04159936013369476</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1482840869618297</v>
+      </c>
+      <c r="H91">
+        <v>-0.1634690847543267</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1657019695813428</v>
+        <v>-0.236179015680301</v>
       </c>
       <c r="C92">
-        <v>-0.06921927007568371</v>
+        <v>0.09280164761999996</v>
       </c>
       <c r="D92">
-        <v>-0.2421062698629213</v>
+        <v>-0.2402100997044266</v>
       </c>
       <c r="E92">
-        <v>0.4144514373303865</v>
+        <v>-0.02523732595274388</v>
       </c>
       <c r="F92">
-        <v>-0.05944816774475184</v>
+        <v>-0.04243243620459934</v>
       </c>
       <c r="G92">
-        <v>-0.524544112543155</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.003587246605322903</v>
+      </c>
+      <c r="H92">
+        <v>-0.1541009344611489</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08308358089860637</v>
+        <v>-0.2166254123943918</v>
       </c>
       <c r="C93">
-        <v>-0.09302056667108156</v>
+        <v>0.04373883107513813</v>
       </c>
       <c r="D93">
-        <v>-0.1676313640072513</v>
+        <v>-0.3285033237764671</v>
       </c>
       <c r="E93">
-        <v>0.4045754460646785</v>
+        <v>-0.07333144777183619</v>
       </c>
       <c r="F93">
-        <v>0.0766135865640495</v>
+        <v>-0.09917102596974442</v>
       </c>
       <c r="G93">
-        <v>0.05584337317336921</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04032661757850194</v>
+      </c>
+      <c r="H93">
+        <v>-0.01479328698413975</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2971501552412932</v>
+        <v>-0.2639472039586394</v>
       </c>
       <c r="C94">
-        <v>0.1838025549477298</v>
+        <v>0.09639209611486747</v>
       </c>
       <c r="D94">
-        <v>-0.1413230248236761</v>
+        <v>0.139548056532039</v>
       </c>
       <c r="E94">
-        <v>-0.04605700187632397</v>
+        <v>-0.0004634829665742047</v>
       </c>
       <c r="F94">
-        <v>-0.2439389529991708</v>
+        <v>0.1923863564305712</v>
       </c>
       <c r="G94">
-        <v>0.07837255931275314</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1425078856337982</v>
+      </c>
+      <c r="H94">
+        <v>-0.1815355325014455</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07707088929817402</v>
+        <v>-0.05613261941727</v>
       </c>
       <c r="C95">
-        <v>0.05332131147192679</v>
+        <v>0.02971292063434425</v>
       </c>
       <c r="D95">
-        <v>0.07585911987782853</v>
+        <v>0.09180421326687951</v>
       </c>
       <c r="E95">
-        <v>-0.08655877170777163</v>
+        <v>-0.07625594063311138</v>
       </c>
       <c r="F95">
-        <v>-0.01810484888283337</v>
+        <v>0.01129630199478357</v>
       </c>
       <c r="G95">
-        <v>-0.172191436179964</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.03049024783561579</v>
+      </c>
+      <c r="H95">
+        <v>0.03413635586260439</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1795758087424213</v>
+        <v>-0.1818493755884133</v>
       </c>
       <c r="C98">
-        <v>0.005096914540013335</v>
+        <v>0.0692005888636717</v>
       </c>
       <c r="D98">
-        <v>0.01889565565549654</v>
+        <v>0.03132134135856489</v>
       </c>
       <c r="E98">
-        <v>0.07458671391938843</v>
+        <v>-0.0432699706199716</v>
       </c>
       <c r="F98">
-        <v>0.172891976067482</v>
+        <v>0.002543853782872002</v>
       </c>
       <c r="G98">
-        <v>0.3283145259079618</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.08022301047524094</v>
+      </c>
+      <c r="H98">
+        <v>0.3815611515748907</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.007422354647739192</v>
+        <v>-0.0148151201457984</v>
       </c>
       <c r="C101">
-        <v>0.02294609500791149</v>
+        <v>-0.0006353120652726768</v>
       </c>
       <c r="D101">
-        <v>0.007127934802473892</v>
+        <v>0.01007919567311757</v>
       </c>
       <c r="E101">
-        <v>-0.1137626515059399</v>
+        <v>0.005462835243654526</v>
       </c>
       <c r="F101">
-        <v>0.1336920428810243</v>
+        <v>0.01755573839987489</v>
       </c>
       <c r="G101">
-        <v>-0.159265072575101</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1086654834722956</v>
+      </c>
+      <c r="H101">
+        <v>-0.03321381348857712</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09951593760621526</v>
+        <v>-0.1057050478918929</v>
       </c>
       <c r="C102">
-        <v>0.05233782716296132</v>
+        <v>0.03455130073759458</v>
       </c>
       <c r="D102">
-        <v>-0.02088050605308444</v>
+        <v>0.07434973433260943</v>
       </c>
       <c r="E102">
-        <v>-0.04494589216189467</v>
+        <v>0.009516249464124552</v>
       </c>
       <c r="F102">
-        <v>-0.1237469480839409</v>
+        <v>0.07104944452663114</v>
       </c>
       <c r="G102">
-        <v>-0.01632008254215951</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.07652463982237276</v>
+      </c>
+      <c r="H102">
+        <v>-0.07147553704643118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.0258479652152255</v>
+        <v>-0.0198065720260716</v>
       </c>
       <c r="C103">
-        <v>0.01104774151851062</v>
+        <v>0.00753981087964255</v>
       </c>
       <c r="D103">
-        <v>-0.005470191337129204</v>
+        <v>0.01586001983758181</v>
       </c>
       <c r="E103">
-        <v>-0.01674759273701575</v>
+        <v>0.01205907865209367</v>
       </c>
       <c r="F103">
-        <v>-0.006860028273531967</v>
+        <v>0.01462014227534689</v>
       </c>
       <c r="G103">
-        <v>-0.03890139428484376</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.0003525372752601552</v>
+      </c>
+      <c r="H103">
+        <v>-0.008193075451454894</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2704352529390712</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9458133095773983</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.003348692011031837</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03821705038369488</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1438668183847128</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.01157400580257997</v>
+      </c>
+      <c r="H104">
+        <v>-0.03768270050882787</v>
       </c>
     </row>
   </sheetData>
